--- a/rdexpense-manager/src/main/resources/template/立项申请导入模板.xlsx
+++ b/rdexpense-manager/src/main/resources/template/立项申请导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="901"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主信息" sheetId="22" r:id="rId1"/>
@@ -745,12 +745,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="36">
@@ -857,22 +857,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,43 +938,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -948,16 +955,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,6 +977,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -980,14 +987,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,7 +1022,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,163 +1178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,6 +1197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,6 +1294,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1313,57 +1361,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,9 +1383,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,10 +1400,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,16 +1412,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1430,127 +1430,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1559,17 +1559,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1591,25 +1597,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1722,9 +1728,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1779,8 +1782,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1788,18 +1797,18 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1847,9 +1856,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2961,7 +2967,7 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -2990,221 +2996,221 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:11">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:13">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:13">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:13">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:13">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="89" t="s">
+      <c r="G5" s="93"/>
+      <c r="H5" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89" t="s">
+      <c r="I5" s="92"/>
+      <c r="J5" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:13">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="89" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="89" t="s">
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:13">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" ht="22" customHeight="1" spans="1:13">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:13">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:13">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
     </row>
     <row r="12" ht="72" customHeight="1" spans="1:13">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3245,233 +3251,233 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="90.3333333333333" style="84" customWidth="1"/>
-    <col min="2" max="11" width="9" style="84"/>
+    <col min="1" max="1" width="90.3333333333333" style="87" customWidth="1"/>
+    <col min="2" max="11" width="9" style="87"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="51" customHeight="1" spans="1:13">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:13">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="58" customHeight="1" spans="1:13">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:13">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="63" customHeight="1" spans="1:13">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="49" customHeight="1" spans="1:13">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="55" customHeight="1" spans="1:13">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3484,109 +3490,109 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="73" customWidth="1"/>
-    <col min="2" max="2" width="60.2222222222222" style="73" customWidth="1"/>
-    <col min="3" max="3" width="9.88888888888889" style="73" customWidth="1"/>
-    <col min="4" max="4" width="11" style="73" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="73" customWidth="1"/>
-    <col min="6" max="6" width="9" style="38"/>
-    <col min="7" max="7" width="11.3796296296296" style="38" customWidth="1"/>
-    <col min="8" max="9" width="9" style="38"/>
-    <col min="10" max="10" width="12.3796296296296" style="38" customWidth="1"/>
-    <col min="11" max="11" width="10.1296296296296" style="38" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="38" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="38" customWidth="1"/>
-    <col min="14" max="14" width="12" style="38" customWidth="1"/>
-    <col min="15" max="16" width="18.25" style="38" customWidth="1"/>
-    <col min="17" max="17" width="9" style="38"/>
-    <col min="18" max="18" width="11.6296296296296" style="38" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="38" customWidth="1"/>
-    <col min="20" max="20" width="11.6296296296296" style="38" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="33.3333333333333" style="74" customWidth="1"/>
+    <col min="2" max="2" width="60.2222222222222" style="75" customWidth="1"/>
+    <col min="3" max="3" width="9.88888888888889" style="75" customWidth="1"/>
+    <col min="4" max="4" width="11" style="75" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="75" customWidth="1"/>
+    <col min="6" max="6" width="9" style="40"/>
+    <col min="7" max="7" width="11.3796296296296" style="40" customWidth="1"/>
+    <col min="8" max="9" width="9" style="40"/>
+    <col min="10" max="10" width="12.3796296296296" style="40" customWidth="1"/>
+    <col min="11" max="11" width="10.1296296296296" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="40" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="40" customWidth="1"/>
+    <col min="14" max="14" width="12" style="40" customWidth="1"/>
+    <col min="15" max="16" width="18.25" style="40" customWidth="1"/>
+    <col min="17" max="17" width="9" style="40"/>
+    <col min="18" max="18" width="11.6296296296296" style="40" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="40" customWidth="1"/>
+    <col min="20" max="20" width="11.6296296296296" style="40" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A1" s="74" t="s">
+    <row r="1" s="40" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+      <c r="A1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-    </row>
-    <row r="2" s="38" customFormat="1" ht="18.95" customHeight="1" spans="1:13">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" s="40" customFormat="1" ht="18.95" customHeight="1" spans="1:13">
+      <c r="A2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-    </row>
-    <row r="3" s="38" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+    </row>
+    <row r="3" s="40" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:11">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:11">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3630,76 +3636,76 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:11">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:11">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:11">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3724,7 +3730,7 @@
     <col min="1" max="1" width="7.77777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="52"/>
+    <col min="4" max="4" width="9" style="54"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="11.3796296296296" style="1" customWidth="1"/>
@@ -3735,7 +3741,7 @@
     <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16" width="18.25" style="53" customWidth="1"/>
+    <col min="15" max="16" width="18.25" style="55" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="11.6296296296296" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.25" style="1" customWidth="1"/>
@@ -3744,128 +3750,128 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:16">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="64" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:16">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3887,10 +3893,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.5555555555556" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16.2222222222222" style="39" customWidth="1"/>
-    <col min="3" max="3" width="27.3333333333333" style="38" customWidth="1"/>
-    <col min="4" max="4" width="15.4444444444444" style="39" customWidth="1"/>
+    <col min="1" max="1" width="26.5555555555556" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.2222222222222" style="41" customWidth="1"/>
+    <col min="3" max="3" width="27.3333333333333" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" style="41" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="11.3796296296296" style="1" customWidth="1"/>
@@ -3910,214 +3916,214 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" ht="27" customHeight="1" spans="1:25">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="39" customFormat="1" ht="27" customHeight="1" spans="1:25">
+      <c r="A1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" ht="15.6" spans="1:4">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:4">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" ht="15.6" spans="1:4">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" ht="15.6" spans="1:4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" ht="15.6" spans="1:4">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="47"/>
     </row>
     <row r="10" ht="15.6" spans="1:4">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" ht="15.6" spans="1:4">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="49"/>
     </row>
     <row r="12" ht="15.6" spans="1:4">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="44" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="47"/>
     </row>
     <row r="13" ht="15.6" spans="1:4">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="44" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" ht="15.6" spans="1:4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="44" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" ht="15.6" spans="1:4">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="44" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="44" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="47"/>
     </row>
     <row r="17" ht="15.6" spans="1:4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" ht="15.6" spans="1:4">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="44" t="s">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="47"/>
     </row>
     <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="44" t="s">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4146,996 +4152,996 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1111111111111" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.1111111111111" style="19" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.5555555555556" style="19" customWidth="1"/>
     <col min="5" max="50" width="6" style="1" customWidth="1"/>
     <col min="51" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="23" t="s">
+      <c r="U4" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="Y4" s="23" t="s">
+      <c r="Y4" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="25" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="17"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
     </row>
     <row r="18" customHeight="1" spans="1:42">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
     </row>
     <row r="19" customHeight="1" spans="1:42">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="17"/>
-      <c r="AP19" s="17"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
     </row>
     <row r="20" customHeight="1" spans="1:42">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="17"/>
-      <c r="AP20" s="17"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
     </row>
     <row r="21" customHeight="1" spans="1:42">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5161,65 +5167,51 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.1111111111111" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.5555555555556" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="11.3796296296296" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="12.3796296296296" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1296296296296" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16" width="18.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="11.6296296296296" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6296296296296" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.6666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/rdexpense-manager/src/main/resources/template/立项申请导入模板.xlsx
+++ b/rdexpense-manager/src/main/resources/template/立项申请导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="901" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="主信息" sheetId="22" r:id="rId1"/>
@@ -512,10 +512,10 @@
     <t>研究内容提要</t>
   </si>
   <si>
-    <t xml:space="preserve">申报单位审查意见：    </t>
-  </si>
-  <si>
-    <t>盖章:</t>
+    <t xml:space="preserve">申报单位审查意见    </t>
+  </si>
+  <si>
+    <t>盖章</t>
   </si>
   <si>
     <t>一、国内外现状</t>
@@ -745,15 +745,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,11 +817,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -857,37 +864,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,7 +885,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,18 +899,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,6 +913,20 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -955,15 +946,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,6 +971,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,17 +1001,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1022,7 +1029,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,19 +1083,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,61 +1131,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,61 +1167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1185,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,6 +1302,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1314,45 +1336,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,6 +1364,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1391,6 +1389,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1400,10 +1407,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1412,145 +1419,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1559,7 +1566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1569,10 +1576,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyBorder="1">
@@ -1581,184 +1588,178 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1839,23 +1840,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1863,13 +1861,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2967,8 +2968,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2996,221 +2997,221 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:11">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:13">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:13">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:13">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="93"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:13">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92" t="s">
+      <c r="E5" s="91"/>
+      <c r="F5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="92" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92" t="s">
+      <c r="I5" s="91"/>
+      <c r="J5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="93"/>
+      <c r="K5" s="92"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:13">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="92" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="92" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:13">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:14">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="91"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
     <row r="9" ht="22" customHeight="1" spans="1:13">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:13">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:13">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
     </row>
     <row r="12" ht="72" customHeight="1" spans="1:13">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3251,233 +3252,233 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="90.3333333333333" style="87" customWidth="1"/>
-    <col min="2" max="11" width="9" style="87"/>
+    <col min="1" max="1" width="90.3333333333333" style="85" customWidth="1"/>
+    <col min="2" max="11" width="9" style="85"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="51" customHeight="1" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:13">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="58" customHeight="1" spans="1:13">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:13">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="63" customHeight="1" spans="1:13">
-      <c r="A10" s="89"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="49" customHeight="1" spans="1:13">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="55" customHeight="1" spans="1:13">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3490,109 +3491,109 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="33.3333333333333" style="74" customWidth="1"/>
-    <col min="2" max="2" width="60.2222222222222" style="75" customWidth="1"/>
-    <col min="3" max="3" width="9.88888888888889" style="75" customWidth="1"/>
-    <col min="4" max="4" width="11" style="75" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="75" customWidth="1"/>
-    <col min="6" max="6" width="9" style="40"/>
-    <col min="7" max="7" width="11.3796296296296" style="40" customWidth="1"/>
-    <col min="8" max="9" width="9" style="40"/>
-    <col min="10" max="10" width="12.3796296296296" style="40" customWidth="1"/>
-    <col min="11" max="11" width="10.1296296296296" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="40" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="40" customWidth="1"/>
-    <col min="14" max="14" width="12" style="40" customWidth="1"/>
-    <col min="15" max="16" width="18.25" style="40" customWidth="1"/>
-    <col min="17" max="17" width="9" style="40"/>
-    <col min="18" max="18" width="11.6296296296296" style="40" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="40" customWidth="1"/>
-    <col min="20" max="20" width="11.6296296296296" style="40" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="33.3333333333333" style="72" customWidth="1"/>
+    <col min="2" max="2" width="60.2222222222222" style="73" customWidth="1"/>
+    <col min="3" max="3" width="9.88888888888889" style="73" customWidth="1"/>
+    <col min="4" max="4" width="11" style="73" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="73" customWidth="1"/>
+    <col min="6" max="6" width="9" style="38"/>
+    <col min="7" max="7" width="11.3796296296296" style="38" customWidth="1"/>
+    <col min="8" max="9" width="9" style="38"/>
+    <col min="10" max="10" width="12.3796296296296" style="38" customWidth="1"/>
+    <col min="11" max="11" width="10.1296296296296" style="38" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="38" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="38" customWidth="1"/>
+    <col min="14" max="14" width="12" style="38" customWidth="1"/>
+    <col min="15" max="16" width="18.25" style="38" customWidth="1"/>
+    <col min="17" max="17" width="9" style="38"/>
+    <col min="18" max="18" width="11.6296296296296" style="38" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="38" customWidth="1"/>
+    <col min="20" max="20" width="11.6296296296296" style="38" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
-      <c r="A1" s="76" t="s">
+    <row r="1" s="38" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
+      <c r="A1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" s="40" customFormat="1" ht="18.95" customHeight="1" spans="1:13">
-      <c r="A2" s="79" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+    </row>
+    <row r="2" s="38" customFormat="1" ht="18.95" customHeight="1" spans="1:13">
+      <c r="A2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-    </row>
-    <row r="3" s="40" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+    </row>
+    <row r="3" s="38" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:11">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:11">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3636,76 +3637,76 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:11">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:11">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:11">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:11">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3722,7 +3723,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -3730,7 +3731,7 @@
     <col min="1" max="1" width="7.77777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="54"/>
+    <col min="4" max="4" width="9" style="52"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="11.3796296296296" style="1" customWidth="1"/>
@@ -3741,7 +3742,7 @@
     <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16" width="18.25" style="55" customWidth="1"/>
+    <col min="15" max="16" width="18.25" style="53" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="11.6296296296296" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.25" style="1" customWidth="1"/>
@@ -3755,7 +3756,7 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="56"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3766,112 +3767,112 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:16">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="64" t="s">
+      <c r="P2" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:16">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3888,15 +3889,15 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.5555555555556" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.2222222222222" style="41" customWidth="1"/>
-    <col min="3" max="3" width="27.3333333333333" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15.4444444444444" style="41" customWidth="1"/>
+    <col min="1" max="1" width="26.5555555555556" style="38" customWidth="1"/>
+    <col min="2" max="2" width="16.2222222222222" style="39" customWidth="1"/>
+    <col min="3" max="3" width="27.3333333333333" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" style="39" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="11.3796296296296" style="1" customWidth="1"/>
@@ -3916,13 +3917,13 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="27" customHeight="1" spans="1:25">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="37" customFormat="1" ht="27" customHeight="1" spans="1:25">
+      <c r="A1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
@@ -3946,184 +3947,184 @@
       <c r="Y1" s="8"/>
     </row>
     <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
     </row>
     <row r="5" ht="15.6" spans="1:4">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:4">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" ht="15.6" spans="1:4">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" ht="15.6" spans="1:4">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="47"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" ht="15.6" spans="1:4">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="47"/>
+      <c r="D9" s="45"/>
     </row>
     <row r="10" ht="15.6" spans="1:4">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="47"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" ht="15.6" spans="1:4">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" ht="15.6" spans="1:4">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="46" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" ht="15.6" spans="1:4">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" ht="15.6" spans="1:4">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="46" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" ht="15.6" spans="1:4">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="46" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:4">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="46" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" ht="15.6" spans="1:4">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" ht="15.6" spans="1:4">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="46" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="47"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" ht="15.6" spans="1:4">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="47"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" ht="15.6" spans="1:4">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="46" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" ht="15.6" spans="1:4">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="46" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4145,1003 +4146,1003 @@
   <sheetPr/>
   <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1111111111111" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.1111111111111" style="17" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.5555555555556" style="17" customWidth="1"/>
     <col min="5" max="50" width="6" style="1" customWidth="1"/>
     <col min="51" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:28">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="25" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="Y4" s="25" t="s">
+      <c r="Y4" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="25" t="s">
+      <c r="Z4" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" s="25" t="s">
+      <c r="AB4" s="23" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="19"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="17"/>
+      <c r="AP13" s="17"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="19"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="26" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:42">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
     </row>
     <row r="18" customHeight="1" spans="1:42">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
     </row>
     <row r="19" customHeight="1" spans="1:42">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
     </row>
     <row r="20" customHeight="1" spans="1:42">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
     </row>
     <row r="21" customHeight="1" spans="1:42">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="19"/>
-      <c r="AN21" s="19"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5167,7 +5168,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -5210,8 +5211,8 @@
       <c r="D4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/rdexpense-manager/src/main/resources/template/立项申请导入模板.xlsx
+++ b/rdexpense-manager/src/main/resources/template/立项申请导入模板.xlsx
@@ -745,13 +745,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -863,6 +863,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -878,7 +886,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,14 +945,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -922,26 +952,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,7 +977,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,7 +993,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,26 +1007,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1029,7 +1029,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,61 +1089,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,79 +1125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1149,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,12 +1185,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1229,6 +1229,30 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1288,15 +1312,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1312,6 +1347,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1340,15 +1384,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1364,21 +1399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1389,15 +1409,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1407,10 +1418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,145 +1430,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1576,10 +1587,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyBorder="1">
@@ -1588,186 +1599,186 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="57" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="57" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1786,22 +1797,22 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1810,10 +1821,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1843,13 +1854,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2968,8 +2979,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3232,8 +3243,16 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="A10:K11"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="2" sqref="B8:H8"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:K7">
+      <formula1>"A：线路及岩土  ,B：桥梁 , C：地下工程 , D：工业与民用建筑  ,E：机械   ,   F：四电、信息技术   ,  G：其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="2" sqref="B8:H8">
+      <formula1>"自主研发,委托研发"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait"/>
@@ -3723,7 +3742,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -4147,7 +4166,7 @@
   <dimension ref="A1:AP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:AB2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4165,32 +4184,32 @@
         <v>75</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="C1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="36"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A2" s="20" t="s">
@@ -4702,7 +4721,7 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="34"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
@@ -4748,7 +4767,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
-      <c r="P13" s="35"/>
+      <c r="P13" s="34"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
@@ -4794,7 +4813,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="35"/>
+      <c r="P14" s="34"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -4840,7 +4859,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
-      <c r="P15" s="35"/>
+      <c r="P15" s="34"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
@@ -4886,7 +4905,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="35"/>
+      <c r="P16" s="34"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
@@ -4932,7 +4951,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
-      <c r="P17" s="35"/>
+      <c r="P17" s="34"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
@@ -4978,7 +4997,7 @@
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="36"/>
+      <c r="P18" s="35"/>
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
       <c r="S18" s="30"/>
@@ -5024,7 +5043,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="36"/>
+      <c r="P19" s="35"/>
       <c r="Q19" s="30"/>
       <c r="R19" s="30"/>
       <c r="S19" s="30"/>
@@ -5070,7 +5089,7 @@
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="36"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
       <c r="S20" s="30"/>
@@ -5116,7 +5135,7 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
-      <c r="P21" s="36"/>
+      <c r="P21" s="35"/>
       <c r="Q21" s="30"/>
       <c r="R21" s="30"/>
       <c r="S21" s="30"/>
@@ -5146,7 +5165,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:AB2"/>
@@ -5168,7 +5187,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
